--- a/data/warn-scraper/cache/mt/source.xlsx
+++ b/data/warn-scraper/cache/mt/source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SHARE\WIOA\WARN Notices\Website Updates\Warn Updates 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mtgov-my.sharepoint.com/personal/cea599_mt_gov/Documents/WebContentManagement/2023/WARN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBF08C95-533A-4D82-B7AE-65CFF19EF4D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99014BAF-DA6A-4354-8A18-177D91A119BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9EEBCBD0-1086-4593-A928-76738C10FB2E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9EEBCBD0-1086-4593-A928-76738C10FB2E}"/>
   </bookViews>
   <sheets>
     <sheet name="WARN" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>Date of Notice</t>
   </si>
@@ -209,6 +209,18 @@
   </si>
   <si>
     <t>Idaho Forest Group</t>
+  </si>
+  <si>
+    <t>Sidney Sugars</t>
+  </si>
+  <si>
+    <t>up to 300</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>Richland</t>
   </si>
 </sst>
 </file>
@@ -296,15 +308,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -328,11 +331,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -370,50 +386,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,7 +731,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -732,20 +742,20 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -768,104 +778,106 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="24">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="9">
+        <v>44963</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="9">
+        <v>45030</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>2021</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B3" s="5">
         <v>44438</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="5">
-        <v>44530</v>
-      </c>
-      <c r="G2" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B3" s="5">
-        <v>43843</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="5">
+        <v>44530</v>
+      </c>
+      <c r="G3" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B4" s="5">
+        <v>43843</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5">
         <v>43922</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G4" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="5">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="5">
         <v>43871</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F5" s="5">
         <v>43946</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G5" s="6">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="5">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="5">
         <v>43914</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="5">
-        <v>43915</v>
-      </c>
-      <c r="G5" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="5">
-        <v>43915</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>36</v>
@@ -874,19 +886,19 @@
         <v>43915</v>
       </c>
       <c r="G6" s="6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
       <c r="B7" s="5">
         <v>43915</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>36</v>
@@ -895,100 +907,100 @@
         <v>43915</v>
       </c>
       <c r="G7" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="5">
+        <v>43915</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="5">
+        <v>43915</v>
+      </c>
+      <c r="G8" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="5">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="5">
         <v>43916</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="5">
-        <v>43916</v>
-      </c>
-      <c r="G8" s="6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="5">
-        <v>43924</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F9" s="5">
-        <v>43924</v>
+        <v>43916</v>
       </c>
       <c r="G9" s="6">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
       <c r="B10" s="5">
         <v>43924</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5">
+        <v>43924</v>
+      </c>
+      <c r="G10" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="5">
+        <v>43924</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G11" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="5">
-        <v>43941</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="5">
-        <v>43913</v>
-      </c>
-      <c r="G11" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
       <c r="B12" s="5">
         <v>43941</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>33</v>
@@ -1000,53 +1012,53 @@
         <v>43913</v>
       </c>
       <c r="G12" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="5">
+        <v>43941</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="5">
+        <v>43913</v>
+      </c>
+      <c r="G13" s="6">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="5">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="5">
         <v>43956</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F14" s="5">
         <v>44019</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G14" s="6">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="5">
-        <v>44174</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="5">
-        <v>44167</v>
-      </c>
-      <c r="G14" s="6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
       <c r="B15" s="5">
         <v>44174</v>
       </c>
@@ -1060,310 +1072,322 @@
         <v>38</v>
       </c>
       <c r="F15" s="5">
+        <v>44167</v>
+      </c>
+      <c r="G15" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="5">
+        <v>44174</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="5">
         <v>44228</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G16" s="6">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>2018</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B17" s="5">
         <v>43208</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F17" s="5">
         <v>43374</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G17" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>2017</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B18" s="7">
         <v>42815</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F18" s="7">
         <v>42916</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G18" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>2016</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B19" s="7">
         <v>42373</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="7">
         <v>42275</v>
-      </c>
-      <c r="G18" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="7">
-        <v>42389</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="7">
-        <v>42460</v>
       </c>
       <c r="G19" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
       <c r="B20" s="7">
+        <v>42389</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="7">
+        <v>42460</v>
+      </c>
+      <c r="G20" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="7">
         <v>42459</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F21" s="7">
         <v>42491</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="7">
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="B22" s="7">
         <v>42543</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="7">
-        <v>42617</v>
-      </c>
-      <c r="G21" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B22" s="8">
-        <v>42033</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7">
+        <v>42617</v>
+      </c>
+      <c r="G22" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B23" s="8">
+        <v>42033</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F23" s="11">
         <v>42094</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G23" s="12">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="9">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="9">
         <v>42131</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F24" s="11">
         <v>42369</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G24" s="12">
         <v>341</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="9">
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="9">
         <v>42270</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F25" s="11">
         <v>42338</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G25" s="12">
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27">
+    <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23">
         <v>42312</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F26" s="11">
         <v>42355</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G26" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="20"/>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/warn-scraper/cache/mt/source.xlsx
+++ b/data/warn-scraper/cache/mt/source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mtgov-my.sharepoint.com/personal/cea599_mt_gov/Documents/WebContentManagement/2023/WARN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99014BAF-DA6A-4354-8A18-177D91A119BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9D4C8A2-9B08-4571-8501-2FE0CC860A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9EEBCBD0-1086-4593-A928-76738C10FB2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9EEBCBD0-1086-4593-A928-76738C10FB2E}"/>
   </bookViews>
   <sheets>
     <sheet name="WARN" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t>Date of Notice</t>
   </si>
@@ -221,6 +221,39 @@
   </si>
   <si>
     <t>Richland</t>
+  </si>
+  <si>
+    <t>ION Nutritional Labs</t>
+  </si>
+  <si>
+    <t>Missoula CTY</t>
+  </si>
+  <si>
+    <t>Health, Manfucaturing, RD</t>
+  </si>
+  <si>
+    <t>Sept-April</t>
+  </si>
+  <si>
+    <t>Charter Communications</t>
+  </si>
+  <si>
+    <t>Billings/Yellowstone</t>
+  </si>
+  <si>
+    <t>Call Center</t>
+  </si>
+  <si>
+    <t>American Nursery Services</t>
+  </si>
+  <si>
+    <t>Multiple sites</t>
+  </si>
+  <si>
+    <t>Seasonal/Nursery</t>
+  </si>
+  <si>
+    <t>Over 100</t>
   </si>
 </sst>
 </file>
@@ -348,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -386,18 +419,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -419,11 +440,24 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,7 +765,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -739,23 +773,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0C4581-54A0-444B-96BE-38D309589FE1}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -778,616 +812,607 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="24">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
         <v>2023</v>
       </c>
       <c r="B2" s="9">
         <v>44963</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="20" t="s">
         <v>63</v>
       </c>
       <c r="F2" s="9">
         <v>45030</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22">
+        <v>45139</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="23">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22">
+        <v>45161</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="22">
+        <v>45226</v>
+      </c>
+      <c r="G4" s="23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22">
+        <v>45174</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="22">
+        <v>45231</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
         <v>2021</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B6" s="5">
         <v>44438</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F6" s="5">
         <v>44530</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G6" s="6">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
         <v>2020</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B7" s="5">
         <v>43843</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F7" s="5">
         <v>43922</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G7" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="5">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="5">
         <v>43871</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F8" s="5">
         <v>43946</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G8" s="6">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="5">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="5">
         <v>43914</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F9" s="5">
         <v>43915</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G9" s="6">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="5">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="5">
         <v>43915</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F10" s="5">
         <v>43915</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G10" s="6">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="5">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="5">
         <v>43915</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F11" s="5">
         <v>43915</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G11" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="5">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="5">
         <v>43916</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F12" s="5">
         <v>43916</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G12" s="6">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="5">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="5">
         <v>43924</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F13" s="5">
         <v>43924</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G13" s="6">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="5">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="5">
         <v>43924</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G14" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="5">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="5">
         <v>43941</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="5">
-        <v>43913</v>
-      </c>
-      <c r="G12" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="5">
-        <v>43941</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="5">
-        <v>43913</v>
-      </c>
-      <c r="G13" s="6">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="5">
-        <v>43956</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="5">
-        <v>44019</v>
-      </c>
-      <c r="G14" s="6">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="5">
-        <v>44174</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="5">
-        <v>44167</v>
+        <v>43913</v>
       </c>
       <c r="G15" s="6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
       <c r="B16" s="5">
-        <v>44174</v>
+        <v>43941</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="5">
+        <v>43913</v>
+      </c>
+      <c r="G16" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="5">
+        <v>43956</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="5">
+        <v>44019</v>
+      </c>
+      <c r="G17" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="5">
+        <v>44174</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="5">
+        <v>44167</v>
+      </c>
+      <c r="G18" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="5">
+        <v>44174</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="5">
         <v>44228</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G19" s="6">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>2018</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B20" s="5">
         <v>43208</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F20" s="5">
         <v>43374</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G20" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>2017</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B21" s="7">
         <v>42815</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F21" s="7">
         <v>42916</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G21" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>2016</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B22" s="7">
         <v>42373</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="7">
-        <v>42275</v>
-      </c>
-      <c r="G19" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="7">
-        <v>42389</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="7">
-        <v>42460</v>
-      </c>
-      <c r="G20" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="7">
-        <v>42459</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="7">
-        <v>42491</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="7">
-        <v>42543</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="7">
+        <v>42275</v>
+      </c>
+      <c r="G22" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="7">
+        <v>42389</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="7">
+        <v>42460</v>
+      </c>
+      <c r="G23" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="7">
+        <v>42459</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="7">
+        <v>42491</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="7">
+        <v>42543</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="7">
         <v>42617</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G25" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>2015</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B26" s="8">
         <v>42033</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F26" s="11">
         <v>42094</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G26" s="12">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="9">
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="9">
         <v>42131</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F27" s="11">
         <v>42369</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G27" s="12">
         <v>341</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="9">
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="9">
         <v>42270</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F28" s="11">
         <v>42338</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G28" s="12">
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23">
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19">
         <v>42312</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F29" s="11">
         <v>42355</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G29" s="12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="16"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="16"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/warn-scraper/cache/mt/source.xlsx
+++ b/data/warn-scraper/cache/mt/source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mtgov-my.sharepoint.com/personal/cea599_mt_gov/Documents/WebContentManagement/2023/WARN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mtgov-my.sharepoint.com/personal/cea599_mt_gov/Documents/WebContentManagement/2024/WARN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9D4C8A2-9B08-4571-8501-2FE0CC860A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F24A15CF-5F15-4FA7-B597-6225333F6D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9EEBCBD0-1086-4593-A928-76738C10FB2E}"/>
+    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{9EEBCBD0-1086-4593-A928-76738C10FB2E}"/>
   </bookViews>
   <sheets>
     <sheet name="WARN" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
   <si>
     <t>Date of Notice</t>
   </si>
@@ -254,13 +254,19 @@
   </si>
   <si>
     <t>Over 100</t>
+  </si>
+  <si>
+    <t>VOLTA</t>
+  </si>
+  <si>
+    <t>Bozeman/Gallatin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +284,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -381,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -458,6 +472,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,9 +504,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -517,7 +544,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -623,7 +650,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -765,7 +792,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -773,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0C4581-54A0-444B-96BE-38D309589FE1}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,604 +840,627 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="A2" s="27">
+        <v>2024</v>
+      </c>
+      <c r="B2" s="31">
+        <v>45380</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="30">
+        <v>45443</v>
+      </c>
+      <c r="G2" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
         <v>2023</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B5" s="9">
         <v>44963</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C5" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D5" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E5" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F5" s="9">
         <v>45030</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G5" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22">
         <v>45139</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C6" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D6" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E6" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F6" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G6" s="23">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22">
         <v>45161</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C7" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D7" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E7" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F7" s="22">
         <v>45226</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G7" s="23">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22">
         <v>45174</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C8" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D8" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E8" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F8" s="22">
         <v>45231</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G8" s="23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
         <v>2021</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B9" s="5">
         <v>44438</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F9" s="5">
         <v>44530</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G9" s="6">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
         <v>2020</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B10" s="5">
         <v>43843</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F10" s="5">
         <v>43922</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G10" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="5">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="5">
         <v>43871</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F11" s="5">
         <v>43946</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G11" s="6">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="5">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="5">
         <v>43914</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F12" s="5">
         <v>43915</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G12" s="6">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="5">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="5">
         <v>43915</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F13" s="5">
         <v>43915</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G13" s="6">
         <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="5">
-        <v>43915</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="5">
-        <v>43915</v>
-      </c>
-      <c r="G11" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="5">
-        <v>43916</v>
-      </c>
-      <c r="G12" s="6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="5">
-        <v>43924</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="5">
-        <v>43924</v>
-      </c>
-      <c r="G13" s="6">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="5">
-        <v>43924</v>
+        <v>43915</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="F14" s="5">
+        <v>43915</v>
       </c>
       <c r="G14" s="6">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="5">
-        <v>43941</v>
+        <v>43916</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F15" s="5">
-        <v>43913</v>
+        <v>43916</v>
       </c>
       <c r="G15" s="6">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="5">
-        <v>43941</v>
+        <v>43924</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F16" s="5">
-        <v>43913</v>
+        <v>43924</v>
       </c>
       <c r="G16" s="6">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="5">
-        <v>43956</v>
+        <v>43924</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="5">
-        <v>44019</v>
+        <v>51</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G17" s="6">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="5">
-        <v>44174</v>
+        <v>43941</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F18" s="5">
-        <v>44167</v>
+        <v>43913</v>
       </c>
       <c r="G18" s="6">
-        <v>76</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="5">
-        <v>44174</v>
+        <v>43941</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="5">
+        <v>43913</v>
+      </c>
+      <c r="G19" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="5">
+        <v>43956</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="5">
+        <v>44019</v>
+      </c>
+      <c r="G20" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="5">
+        <v>44174</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="5">
+        <v>44167</v>
+      </c>
+      <c r="G21" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="5">
+        <v>44174</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="5">
         <v>44228</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G22" s="6">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>2018</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B23" s="5">
         <v>43208</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F23" s="5">
         <v>43374</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G23" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>2017</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B24" s="7">
         <v>42815</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F24" s="7">
         <v>42916</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G24" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>2016</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B25" s="7">
         <v>42373</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="7">
-        <v>42275</v>
-      </c>
-      <c r="G22" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="7">
-        <v>42389</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="7">
-        <v>42460</v>
-      </c>
-      <c r="G23" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="7">
-        <v>42459</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="7">
-        <v>42491</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="7">
-        <v>42543</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="7">
+        <v>42275</v>
+      </c>
+      <c r="G25" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="7">
+        <v>42389</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="7">
+        <v>42460</v>
+      </c>
+      <c r="G26" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="7">
+        <v>42459</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="7">
+        <v>42491</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="7">
+        <v>42543</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="7">
         <v>42617</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G28" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>2015</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B29" s="8">
         <v>42033</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F29" s="11">
         <v>42094</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G29" s="12">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="9">
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="9">
         <v>42131</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F30" s="11">
         <v>42369</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G30" s="12">
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="9">
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="9">
         <v>42270</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F31" s="11">
         <v>42338</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G31" s="12">
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19">
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19">
         <v>42312</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F32" s="11">
         <v>42355</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G32" s="12" t="s">
         <v>40</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/mt/source.xlsx
+++ b/data/warn-scraper/cache/mt/source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mtgov-my.sharepoint.com/personal/cea599_mt_gov/Documents/WebContentManagement/2024/WARN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mtgov-my.sharepoint.com/personal/ce0501_mt_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F24A15CF-5F15-4FA7-B597-6225333F6D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{9E658140-0375-4196-8AF4-54A17CD16374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65250649-FFC9-4728-988E-DE991C66A372}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{9EEBCBD0-1086-4593-A928-76738C10FB2E}"/>
+    <workbookView minimized="1" xWindow="5775" yWindow="1875" windowWidth="20085" windowHeight="11385" xr2:uid="{9EEBCBD0-1086-4593-A928-76738C10FB2E}"/>
   </bookViews>
   <sheets>
     <sheet name="WARN" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
   <si>
     <t>Date of Notice</t>
   </si>
@@ -260,13 +260,25 @@
   </si>
   <si>
     <t>Bozeman/Gallatin</t>
+  </si>
+  <si>
+    <t>Sibayne-Stillwater</t>
+  </si>
+  <si>
+    <t>Stillwater/Sweetgrass</t>
+  </si>
+  <si>
+    <t>Pyramid Lumber</t>
+  </si>
+  <si>
+    <t>Roseburg Forest Products</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,14 +296,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -318,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -391,11 +395,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -473,17 +488,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -501,6 +516,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -800,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0C4581-54A0-444B-96BE-38D309589FE1}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,233 +859,263 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+      <c r="A2" s="29">
         <v>2024</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="22">
         <v>45380</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="22">
         <v>45443</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="22">
+        <v>45365</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="22">
+        <v>45413</v>
+      </c>
+      <c r="G3" s="33">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="22">
+        <v>45371</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="22">
+        <v>45434</v>
+      </c>
+      <c r="G4" s="23">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="22">
+        <v>45547</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="22">
+        <v>45608</v>
+      </c>
+      <c r="G5" s="23">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
         <v>2023</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B7" s="9">
         <v>44963</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C7" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D7" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E7" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F7" s="9">
         <v>45030</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22">
-        <v>45139</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="23">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22">
-        <v>45161</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="22">
-        <v>45226</v>
-      </c>
-      <c r="G7" s="23">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="22">
+        <v>45139</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="23">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22">
+        <v>45161</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="22">
+        <v>45226</v>
+      </c>
+      <c r="G9" s="23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22">
         <v>45174</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D10" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F10" s="22">
         <v>45231</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G10" s="23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
         <v>2021</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B11" s="5">
         <v>44438</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F11" s="5">
         <v>44530</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G11" s="6">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
         <v>2020</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B12" s="5">
         <v>43843</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F12" s="5">
         <v>43922</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G12" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="5">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="5">
         <v>43871</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="5">
-        <v>43946</v>
-      </c>
-      <c r="G11" s="6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="5">
-        <v>43914</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="5">
-        <v>43915</v>
-      </c>
-      <c r="G12" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="5">
-        <v>43915</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F13" s="5">
-        <v>43915</v>
+        <v>43946</v>
       </c>
       <c r="G13" s="6">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="5">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>36</v>
@@ -1075,392 +1124,434 @@
         <v>43915</v>
       </c>
       <c r="G14" s="6">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="5">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F15" s="5">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="G15" s="6">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="5">
-        <v>43924</v>
+        <v>43915</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F16" s="5">
-        <v>43924</v>
+        <v>43915</v>
       </c>
       <c r="G16" s="6">
-        <v>94</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="5">
-        <v>43924</v>
+        <v>43916</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="F17" s="5">
+        <v>43916</v>
       </c>
       <c r="G17" s="6">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="5">
-        <v>43941</v>
+        <v>43924</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F18" s="5">
-        <v>43913</v>
+        <v>43924</v>
       </c>
       <c r="G18" s="6">
-        <v>10</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="5">
-        <v>43941</v>
+        <v>43924</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="5">
-        <v>43913</v>
+        <v>51</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G19" s="6">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="5">
-        <v>43956</v>
+        <v>43941</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F20" s="5">
-        <v>44019</v>
+        <v>43913</v>
       </c>
       <c r="G20" s="6">
-        <v>79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="5">
-        <v>44174</v>
+        <v>43941</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="5">
-        <v>44167</v>
+        <v>43913</v>
       </c>
       <c r="G21" s="6">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="5">
+        <v>43956</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="5">
+        <v>44019</v>
+      </c>
+      <c r="G22" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="5">
         <v>44174</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F23" s="5">
+        <v>44167</v>
+      </c>
+      <c r="G23" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="5">
+        <v>44174</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="5">
         <v>44228</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G24" s="6">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>2018</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B25" s="5">
         <v>43208</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F25" s="5">
         <v>43374</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G25" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>2017</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B26" s="7">
         <v>42815</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F26" s="7">
         <v>42916</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G26" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>2016</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B27" s="7">
         <v>42373</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F27" s="7">
         <v>42275</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G27" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="7">
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="7">
         <v>42389</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F28" s="7">
         <v>42460</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G28" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="7">
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="7">
         <v>42459</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F29" s="7">
         <v>42491</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="7">
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="7">
         <v>42543</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F30" s="7">
         <v>42617</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G30" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>2015</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B31" s="8">
         <v>42033</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F31" s="11">
         <v>42094</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G31" s="12">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="9">
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="9">
         <v>42131</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F32" s="11">
         <v>42369</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G32" s="12">
         <v>341</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="9">
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="9">
         <v>42270</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F33" s="11">
         <v>42338</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G33" s="12">
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19">
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19">
         <v>42312</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F34" s="11">
         <v>42355</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G34" s="12" t="s">
         <v>40</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/mt/source.xlsx
+++ b/data/warn-scraper/cache/mt/source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mtgov-my.sharepoint.com/personal/ce0501_mt_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{9E658140-0375-4196-8AF4-54A17CD16374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65250649-FFC9-4728-988E-DE991C66A372}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="8_{9E658140-0375-4196-8AF4-54A17CD16374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA1AF2C9-918F-44F6-BABF-F7E7C5C8690C}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5775" yWindow="1875" windowWidth="20085" windowHeight="11385" xr2:uid="{9EEBCBD0-1086-4593-A928-76738C10FB2E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9EEBCBD0-1086-4593-A928-76738C10FB2E}"/>
   </bookViews>
   <sheets>
     <sheet name="WARN" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
   <si>
     <t>Date of Notice</t>
   </si>
@@ -272,6 +272,33 @@
   </si>
   <si>
     <t>Roseburg Forest Products</t>
+  </si>
+  <si>
+    <t>Nelson Laboratories</t>
+  </si>
+  <si>
+    <t>Gallatin</t>
+  </si>
+  <si>
+    <t>Medical, Health</t>
+  </si>
+  <si>
+    <t>Mann Mortgage</t>
+  </si>
+  <si>
+    <t>Banking/Lending</t>
+  </si>
+  <si>
+    <t>Gary &amp; Leo's Fresh Foods</t>
+  </si>
+  <si>
+    <t>Retail Trade-Food and Beverage stores</t>
+  </si>
+  <si>
+    <t>Ravalli/Pondera/Hill</t>
+  </si>
+  <si>
+    <t>5/22/2025, 5/29/2025, 6/5/2025</t>
   </si>
 </sst>
 </file>
@@ -410,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -492,14 +519,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,10 +546,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -819,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0C4581-54A0-444B-96BE-38D309589FE1}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,700 +884,792 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
+        <v>2025</v>
+      </c>
+      <c r="B2" s="5">
+        <v>45750</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
         <v>2024</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B5" s="22">
         <v>45380</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C5" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D5" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F5" s="22">
         <v>45443</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G5" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="22">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="22">
         <v>45365</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C6" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F6" s="22">
         <v>45413</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G6" s="32">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="22">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="22">
         <v>45371</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C7" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F7" s="22">
         <v>45434</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G7" s="23">
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="22">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="22">
         <v>45547</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C8" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D8" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F8" s="22">
         <v>45608</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G8" s="23">
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="22">
+        <v>45551</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="22">
+        <v>45611</v>
+      </c>
+      <c r="G9" s="32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="22">
+        <v>45558</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="22">
+        <v>45560</v>
+      </c>
+      <c r="G10" s="32">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="32"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
         <v>2023</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B13" s="9">
         <v>44963</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C13" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D13" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E13" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F13" s="9">
         <v>45030</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G13" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22">
         <v>45139</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C14" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D14" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E14" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F14" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G14" s="23">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22">
         <v>45161</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D15" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E15" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F15" s="22">
         <v>45226</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G15" s="23">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22">
         <v>45174</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C16" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D16" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E16" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F16" s="22">
         <v>45231</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G16" s="23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
         <v>2021</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B17" s="5">
         <v>44438</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F17" s="5">
         <v>44530</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G17" s="6">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
         <v>2020</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B18" s="5">
         <v>43843</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F18" s="5">
         <v>43922</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G18" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="5">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="5">
         <v>43871</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="5">
-        <v>43946</v>
-      </c>
-      <c r="G13" s="6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="5">
-        <v>43914</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="5">
-        <v>43915</v>
-      </c>
-      <c r="G14" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="5">
-        <v>43915</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="5">
-        <v>43915</v>
-      </c>
-      <c r="G15" s="6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="5">
-        <v>43915</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="5">
-        <v>43915</v>
-      </c>
-      <c r="G16" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="5">
-        <v>43916</v>
-      </c>
-      <c r="G17" s="6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="5">
-        <v>43924</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="5">
-        <v>43924</v>
-      </c>
-      <c r="G18" s="6">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="5">
-        <v>43924</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>50</v>
+        <v>14</v>
+      </c>
+      <c r="F19" s="5">
+        <v>43946</v>
       </c>
       <c r="G19" s="6">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="5">
-        <v>43941</v>
+        <v>43914</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" s="5">
-        <v>43913</v>
+        <v>43915</v>
       </c>
       <c r="G20" s="6">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="5">
-        <v>43941</v>
+        <v>43915</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F21" s="5">
-        <v>43913</v>
+        <v>43915</v>
       </c>
       <c r="G21" s="6">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="5">
-        <v>43956</v>
+        <v>43915</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F22" s="5">
-        <v>44019</v>
+        <v>43915</v>
       </c>
       <c r="G22" s="6">
-        <v>79</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="5">
-        <v>44174</v>
+        <v>43916</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F23" s="5">
-        <v>44167</v>
+        <v>43916</v>
       </c>
       <c r="G23" s="6">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="5">
+        <v>43924</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="5">
+        <v>43924</v>
+      </c>
+      <c r="G24" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="5">
+        <v>43924</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="5">
+        <v>43941</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="5">
+        <v>43913</v>
+      </c>
+      <c r="G26" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="5">
+        <v>43941</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="5">
+        <v>43913</v>
+      </c>
+      <c r="G27" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="5">
+        <v>43956</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="5">
+        <v>44019</v>
+      </c>
+      <c r="G28" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="5">
         <v>44174</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F29" s="5">
+        <v>44167</v>
+      </c>
+      <c r="G29" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="5">
+        <v>44174</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="5">
         <v>44228</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G30" s="6">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
         <v>2018</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B31" s="5">
         <v>43208</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F31" s="5">
         <v>43374</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G31" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>2017</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B32" s="7">
         <v>42815</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F32" s="7">
         <v>42916</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G32" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>2016</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B33" s="7">
         <v>42373</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F33" s="7">
         <v>42275</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G33" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="7">
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="7">
         <v>42389</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F34" s="7">
         <v>42460</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G34" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="7">
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="7">
         <v>42459</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F35" s="7">
         <v>42491</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="7">
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="7">
         <v>42543</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F36" s="7">
         <v>42617</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G36" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>2015</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B37" s="8">
         <v>42033</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F37" s="11">
         <v>42094</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G37" s="12">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="9">
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="9">
         <v>42131</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F38" s="11">
         <v>42369</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G38" s="12">
         <v>341</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="9">
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="9">
         <v>42270</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F39" s="11">
         <v>42338</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G39" s="12">
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19">
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19">
         <v>42312</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F40" s="11">
         <v>42355</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G40" s="12" t="s">
         <v>40</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/mt/source.xlsx
+++ b/data/warn-scraper/cache/mt/source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mtgov-my.sharepoint.com/personal/ce0501_mt_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="8_{9E658140-0375-4196-8AF4-54A17CD16374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA1AF2C9-918F-44F6-BABF-F7E7C5C8690C}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{9E658140-0375-4196-8AF4-54A17CD16374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C089D83F-F91E-4A1A-9699-C45D21947C17}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9EEBCBD0-1086-4593-A928-76738C10FB2E}"/>
+    <workbookView xWindow="4080" yWindow="825" windowWidth="21600" windowHeight="11385" xr2:uid="{9EEBCBD0-1086-4593-A928-76738C10FB2E}"/>
   </bookViews>
   <sheets>
     <sheet name="WARN" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
   <si>
     <t>Date of Notice</t>
   </si>
@@ -292,13 +292,40 @@
     <t>Gary &amp; Leo's Fresh Foods</t>
   </si>
   <si>
-    <t>Retail Trade-Food and Beverage stores</t>
-  </si>
-  <si>
     <t>Ravalli/Pondera/Hill</t>
   </si>
   <si>
     <t>5/22/2025, 5/29/2025, 6/5/2025</t>
+  </si>
+  <si>
+    <t>Block, Inc</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Web Design</t>
+  </si>
+  <si>
+    <t>Retail Trade-Food and Beverage Stores</t>
+  </si>
+  <si>
+    <t>Accelerate360 Distrubution</t>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t>Merchandising</t>
+  </si>
+  <si>
+    <t>UFP Edge</t>
+  </si>
+  <si>
+    <t>Zeco Systems</t>
+  </si>
+  <si>
+    <t>Media/Procurement</t>
   </si>
 </sst>
 </file>
@@ -845,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0C4581-54A0-444B-96BE-38D309589FE1}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,792 +911,867 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>2025</v>
       </c>
       <c r="B2" s="5">
+        <v>45743</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45436</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="5">
         <v>45750</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="6">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6">
+        <v>164</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="B4" s="5">
+        <v>45772</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="5">
+        <v>45836</v>
+      </c>
+      <c r="G4" s="6">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="26"/>
+      <c r="B5" s="5">
+        <v>45866</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5">
+        <v>45927</v>
+      </c>
+      <c r="G5" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="5">
+        <v>45887</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="5">
+        <v>45955</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
         <v>2024</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B8" s="22">
         <v>45380</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C8" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D8" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F8" s="22">
         <v>45443</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G8" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="22">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="22">
         <v>45365</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C9" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F9" s="22">
         <v>45413</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G9" s="32">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="22">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="22">
         <v>45371</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C10" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F10" s="22">
         <v>45434</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G10" s="23">
         <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="22">
-        <v>45547</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="22">
-        <v>45608</v>
-      </c>
-      <c r="G8" s="23">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="22">
-        <v>45551</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="22">
-        <v>45611</v>
-      </c>
-      <c r="G9" s="32">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="22">
-        <v>45558</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="22">
-        <v>45560</v>
-      </c>
-      <c r="G10" s="32">
-        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="32"/>
+      <c r="B11" s="22">
+        <v>45547</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="22">
+        <v>45608</v>
+      </c>
+      <c r="G11" s="23">
+        <v>700</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="27"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
-        <v>2023</v>
-      </c>
-      <c r="B13" s="9">
-        <v>44963</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="9">
-        <v>45030</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22">
-        <v>45139</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="23">
-        <v>93</v>
-      </c>
+      <c r="A12" s="30"/>
+      <c r="B12" s="22">
+        <v>45551</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="22">
+        <v>45611</v>
+      </c>
+      <c r="G12" s="32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="22">
+        <v>45558</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="22">
+        <v>45560</v>
+      </c>
+      <c r="G13" s="32">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
-      <c r="B15" s="22">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="9">
+        <v>44963</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="9">
+        <v>45030</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22">
+        <v>45139</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="23">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22">
         <v>45161</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C18" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D18" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E18" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F18" s="22">
         <v>45226</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G18" s="23">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22">
         <v>45174</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C19" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D19" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E19" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F19" s="22">
         <v>45231</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G19" s="23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
         <v>2021</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B20" s="5">
         <v>44438</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F20" s="5">
         <v>44530</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G20" s="6">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
         <v>2020</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B21" s="5">
         <v>43843</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F21" s="5">
         <v>43922</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G21" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="5">
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="5">
         <v>43871</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F22" s="5">
         <v>43946</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G22" s="6">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="5">
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="5">
         <v>43914</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F23" s="5">
         <v>43915</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G23" s="6">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="5">
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="5">
         <v>43915</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F24" s="5">
         <v>43915</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G24" s="6">
         <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="5">
-        <v>43915</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="5">
-        <v>43915</v>
-      </c>
-      <c r="G22" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="5">
-        <v>43916</v>
-      </c>
-      <c r="G23" s="6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="5">
-        <v>43924</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="5">
-        <v>43924</v>
-      </c>
-      <c r="G24" s="6">
-        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="5">
-        <v>43924</v>
+        <v>43915</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="F25" s="5">
+        <v>43915</v>
       </c>
       <c r="G25" s="6">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="5">
-        <v>43941</v>
+        <v>43916</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F26" s="5">
-        <v>43913</v>
+        <v>43916</v>
       </c>
       <c r="G26" s="6">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="5">
-        <v>43941</v>
+        <v>43924</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F27" s="5">
-        <v>43913</v>
+        <v>43924</v>
       </c>
       <c r="G27" s="6">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="5">
-        <v>43956</v>
+        <v>43924</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="5">
-        <v>44019</v>
+        <v>51</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G28" s="6">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="5">
-        <v>44174</v>
+        <v>43941</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F29" s="5">
-        <v>44167</v>
+        <v>43913</v>
       </c>
       <c r="G29" s="6">
-        <v>76</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="5">
-        <v>44174</v>
+        <v>43941</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F30" s="5">
+        <v>43913</v>
+      </c>
+      <c r="G30" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="5">
+        <v>43956</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="5">
+        <v>44019</v>
+      </c>
+      <c r="G31" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="5">
+        <v>44174</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="5">
+        <v>44167</v>
+      </c>
+      <c r="G32" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="5">
+        <v>44174</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="5">
         <v>44228</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G33" s="6">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
         <v>2018</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B34" s="5">
         <v>43208</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F34" s="5">
         <v>43374</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G34" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>2017</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B35" s="7">
         <v>42815</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F35" s="7">
         <v>42916</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G35" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>2016</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B36" s="7">
         <v>42373</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="7">
-        <v>42275</v>
-      </c>
-      <c r="G33" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="7">
-        <v>42389</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="7">
-        <v>42460</v>
-      </c>
-      <c r="G34" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="7">
-        <v>42459</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="7">
-        <v>42491</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="7">
-        <v>42543</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="7">
+        <v>42275</v>
+      </c>
+      <c r="G36" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="7">
+        <v>42389</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="7">
+        <v>42460</v>
+      </c>
+      <c r="G37" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="7">
+        <v>42459</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="7">
+        <v>42491</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="7">
+        <v>42543</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="7">
         <v>42617</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G39" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>2015</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B40" s="8">
         <v>42033</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F40" s="11">
         <v>42094</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G40" s="12">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="9">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="9">
         <v>42131</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F41" s="11">
         <v>42369</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G41" s="12">
         <v>341</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="9">
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="9">
         <v>42270</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F42" s="11">
         <v>42338</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G42" s="12">
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19">
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="19">
         <v>42312</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F43" s="11">
         <v>42355</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G43" s="12" t="s">
         <v>40</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/mt/source.xlsx
+++ b/data/warn-scraper/cache/mt/source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mtgov-my.sharepoint.com/personal/ce0501_mt_gov/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mtgov-my.sharepoint.com/personal/cea599_mt_gov/Documents/WebContentManagement/2025/WARN Notices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{9E658140-0375-4196-8AF4-54A17CD16374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C089D83F-F91E-4A1A-9699-C45D21947C17}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77822553-2403-4B84-AA28-12BD41766410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="825" windowWidth="21600" windowHeight="11385" xr2:uid="{9EEBCBD0-1086-4593-A928-76738C10FB2E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9EEBCBD0-1086-4593-A928-76738C10FB2E}"/>
   </bookViews>
   <sheets>
     <sheet name="WARN" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="102">
   <si>
     <t>Date of Notice</t>
   </si>
@@ -326,6 +326,12 @@
   </si>
   <si>
     <t>Media/Procurement</t>
+  </si>
+  <si>
+    <t>Missoula County/Partnership Health</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
   </si>
 </sst>
 </file>
@@ -872,23 +878,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0C4581-54A0-444B-96BE-38D309589FE1}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -911,7 +917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="26">
         <v>2025</v>
       </c>
@@ -934,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
       <c r="B3" s="5">
         <v>45750</v>
@@ -955,7 +961,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="26"/>
       <c r="B4" s="5">
         <v>45772</v>
@@ -976,7 +982,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
       <c r="B5" s="5">
         <v>45866</v>
@@ -997,7 +1003,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
       <c r="B6" s="5">
         <v>45887</v>
@@ -1018,66 +1024,66 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
+      <c r="B7" s="5">
+        <v>45926</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="5">
+        <v>46022</v>
+      </c>
+      <c r="G7" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
         <v>2024</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B9" s="22">
         <v>45380</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C9" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F9" s="22">
         <v>45443</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G9" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="22">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="22">
         <v>45365</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C10" s="23" t="s">
         <v>80</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="22">
-        <v>45413</v>
-      </c>
-      <c r="G9" s="32">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="22">
-        <v>45371</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>81</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>13</v>
@@ -1086,277 +1092,277 @@
         <v>17</v>
       </c>
       <c r="F10" s="22">
+        <v>45413</v>
+      </c>
+      <c r="G10" s="32">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="22">
+        <v>45371</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="22">
         <v>45434</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G11" s="23">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="22">
-        <v>45547</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="22">
-        <v>45608</v>
-      </c>
-      <c r="G11" s="23">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="22">
-        <v>45551</v>
+        <v>45547</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="F12" s="22">
-        <v>45611</v>
-      </c>
-      <c r="G12" s="32">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45608</v>
+      </c>
+      <c r="G12" s="23">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="22">
+        <v>45551</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="22">
+        <v>45611</v>
+      </c>
+      <c r="G13" s="32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="22">
         <v>45558</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C14" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D14" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E14" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F14" s="22">
         <v>45560</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G14" s="32">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="E15" s="31"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="32"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="25">
         <v>2023</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B17" s="9">
         <v>44963</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C17" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D17" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E17" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F17" s="9">
         <v>45030</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G17" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22">
-        <v>45139</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="23">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="22">
-        <v>45161</v>
+        <v>45139</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="22">
-        <v>45226</v>
+        <v>66</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="G18" s="23">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="22">
+        <v>45161</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="22">
+        <v>45226</v>
+      </c>
+      <c r="G19" s="23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22">
         <v>45174</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C20" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D20" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E20" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F20" s="22">
         <v>45231</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G20" s="23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="26">
         <v>2021</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B21" s="5">
         <v>44438</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="5">
-        <v>44530</v>
-      </c>
-      <c r="G20" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
-        <v>2020</v>
-      </c>
-      <c r="B21" s="5">
-        <v>43843</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="5">
+        <v>44530</v>
+      </c>
+      <c r="G21" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="26">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="5">
+        <v>43843</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="5">
         <v>43922</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G22" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="5">
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="5">
         <v>43871</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F23" s="5">
         <v>43946</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G23" s="6">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="5">
-        <v>43914</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="5">
-        <v>43915</v>
-      </c>
-      <c r="G23" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="5">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>36</v>
@@ -1365,19 +1371,19 @@
         <v>43915</v>
       </c>
       <c r="G24" s="6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
       <c r="B25" s="5">
         <v>43915</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>36</v>
@@ -1386,100 +1392,100 @@
         <v>43915</v>
       </c>
       <c r="G25" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="5">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F26" s="5">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="G26" s="6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="5">
-        <v>43924</v>
+        <v>43916</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F27" s="5">
-        <v>43924</v>
+        <v>43916</v>
       </c>
       <c r="G27" s="6">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="5">
         <v>43924</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="F28" s="5">
+        <v>43924</v>
       </c>
       <c r="G28" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="5">
-        <v>43941</v>
+        <v>43924</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="5">
-        <v>43913</v>
+        <v>51</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G29" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="5">
         <v>43941</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>33</v>
@@ -1491,52 +1497,52 @@
         <v>43913</v>
       </c>
       <c r="G30" s="6">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="5">
-        <v>43956</v>
+        <v>43941</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F31" s="5">
-        <v>44019</v>
+        <v>43913</v>
       </c>
       <c r="G31" s="6">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="5">
-        <v>44174</v>
+        <v>43956</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F32" s="5">
-        <v>44167</v>
+        <v>44019</v>
       </c>
       <c r="G32" s="6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="5">
         <v>44174</v>
@@ -1551,227 +1557,248 @@
         <v>38</v>
       </c>
       <c r="F33" s="5">
+        <v>44167</v>
+      </c>
+      <c r="G33" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="5">
+        <v>44174</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="5">
         <v>44228</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G34" s="6">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
         <v>2018</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B35" s="5">
         <v>43208</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F35" s="5">
         <v>43374</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G35" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>2017</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B36" s="7">
         <v>42815</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F36" s="7">
         <v>42916</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G36" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>2016</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B37" s="7">
         <v>42373</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F37" s="7">
         <v>42275</v>
-      </c>
-      <c r="G36" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="7">
-        <v>42389</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="7">
-        <v>42460</v>
       </c>
       <c r="G37" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
+    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="16"/>
       <c r="B38" s="7">
+        <v>42389</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="7">
+        <v>42460</v>
+      </c>
+      <c r="G38" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="7">
         <v>42459</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F39" s="7">
         <v>42491</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="7">
+    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="7">
         <v>42543</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="7">
-        <v>42617</v>
-      </c>
-      <c r="G39" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B40" s="8">
-        <v>42033</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="7">
+        <v>42617</v>
+      </c>
+      <c r="G40" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B41" s="8">
+        <v>42033</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F41" s="11">
         <v>42094</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G41" s="12">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="9">
+    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
+      <c r="B42" s="9">
         <v>42131</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F42" s="11">
         <v>42369</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G42" s="12">
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="9">
+    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="9">
         <v>42270</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F43" s="11">
         <v>42338</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G43" s="12">
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19">
+    <row r="44" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19">
         <v>42312</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F44" s="11">
         <v>42355</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G44" s="12" t="s">
         <v>40</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/mt/source.xlsx
+++ b/data/warn-scraper/cache/mt/source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mtgov-my.sharepoint.com/personal/cea599_mt_gov/Documents/WebContentManagement/2025/WARN Notices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77822553-2403-4B84-AA28-12BD41766410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BFB3F39-625C-4D15-BA3F-9A70E39734D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9EEBCBD0-1086-4593-A928-76738C10FB2E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9EEBCBD0-1086-4593-A928-76738C10FB2E}"/>
   </bookViews>
   <sheets>
     <sheet name="WARN" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
   <si>
     <t>Date of Notice</t>
   </si>
@@ -332,6 +332,15 @@
   </si>
   <si>
     <t>Healthcare</t>
+  </si>
+  <si>
+    <t>George's Distributing</t>
+  </si>
+  <si>
+    <t>Lewis &amp; Clark</t>
+  </si>
+  <si>
+    <t>Sales</t>
   </si>
 </sst>
 </file>
@@ -878,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0C4581-54A0-444B-96BE-38D309589FE1}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1047,64 +1056,64 @@
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="5">
+        <v>45957</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="5">
+        <v>45994</v>
+      </c>
+      <c r="G8" s="6">
+        <v>112</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="29">
+      <c r="A9" s="26"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
         <v>2024</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B10" s="22">
         <v>45380</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C10" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D10" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F10" s="22">
         <v>45443</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G10" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="22">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="22">
         <v>45365</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C11" s="23" t="s">
         <v>80</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="22">
-        <v>45413</v>
-      </c>
-      <c r="G10" s="32">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="22">
-        <v>45371</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>81</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>13</v>
@@ -1113,277 +1122,277 @@
         <v>17</v>
       </c>
       <c r="F11" s="22">
+        <v>45413</v>
+      </c>
+      <c r="G11" s="32">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="22">
+        <v>45371</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="22">
         <v>45434</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G12" s="23">
         <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="22">
-        <v>45547</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="22">
-        <v>45608</v>
-      </c>
-      <c r="G12" s="23">
-        <v>700</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="22">
-        <v>45551</v>
+        <v>45547</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="F13" s="22">
-        <v>45611</v>
-      </c>
-      <c r="G13" s="32">
-        <v>40</v>
+        <v>45608</v>
+      </c>
+      <c r="G13" s="23">
+        <v>700</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="22">
-        <v>45558</v>
+        <v>45551</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F14" s="22">
-        <v>45560</v>
+        <v>45611</v>
       </c>
       <c r="G14" s="32">
-        <v>109</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="32"/>
+      <c r="B15" s="22">
+        <v>45558</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="22">
+        <v>45560</v>
+      </c>
+      <c r="G15" s="32">
+        <v>109</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
+      <c r="E16" s="31"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="25">
         <v>2023</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B18" s="9">
         <v>44963</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D18" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E18" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="9">
         <v>45030</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G18" s="20" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22">
-        <v>45139</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="23">
-        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="22">
-        <v>45161</v>
+        <v>45139</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="22">
-        <v>45226</v>
+        <v>66</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="G19" s="23">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
       <c r="B20" s="22">
+        <v>45161</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="22">
+        <v>45226</v>
+      </c>
+      <c r="G20" s="23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22">
         <v>45174</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C21" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D21" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E21" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F21" s="22">
         <v>45231</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G21" s="23" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="26">
-        <v>2021</v>
-      </c>
-      <c r="B21" s="5">
-        <v>44438</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="5">
-        <v>44530</v>
-      </c>
-      <c r="G21" s="6">
-        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="26">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B22" s="5">
-        <v>43843</v>
+        <v>44438</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="5">
+        <v>44530</v>
+      </c>
+      <c r="G22" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="26">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="5">
+        <v>43843</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="5">
         <v>43922</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G23" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="5">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="5">
         <v>43871</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F24" s="5">
         <v>43946</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G24" s="6">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="5">
-        <v>43914</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="5">
-        <v>43915</v>
-      </c>
-      <c r="G24" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="5">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>36</v>
@@ -1392,19 +1401,19 @@
         <v>43915</v>
       </c>
       <c r="G25" s="6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
       <c r="B26" s="5">
         <v>43915</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>36</v>
@@ -1413,49 +1422,49 @@
         <v>43915</v>
       </c>
       <c r="G26" s="6">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="5">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F27" s="5">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="G27" s="6">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="5">
-        <v>43924</v>
+        <v>43916</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F28" s="5">
-        <v>43924</v>
+        <v>43916</v>
       </c>
       <c r="G28" s="6">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1464,40 +1473,40 @@
         <v>43924</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="F29" s="5">
+        <v>43924</v>
       </c>
       <c r="G29" s="6">
-        <v>50</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="5">
-        <v>43941</v>
+        <v>43924</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="5">
-        <v>43913</v>
+        <v>51</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G30" s="6">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1506,7 +1515,7 @@
         <v>43941</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>33</v>
@@ -1518,49 +1527,49 @@
         <v>43913</v>
       </c>
       <c r="G31" s="6">
-        <v>83</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="5">
-        <v>43956</v>
+        <v>43941</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F32" s="5">
-        <v>44019</v>
+        <v>43913</v>
       </c>
       <c r="G32" s="6">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="5">
-        <v>44174</v>
+        <v>43956</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F33" s="5">
-        <v>44167</v>
+        <v>44019</v>
       </c>
       <c r="G33" s="6">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1578,227 +1587,248 @@
         <v>38</v>
       </c>
       <c r="F34" s="5">
+        <v>44167</v>
+      </c>
+      <c r="G34" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
+      <c r="B35" s="5">
+        <v>44174</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="5">
         <v>44228</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G35" s="6">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
         <v>2018</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B36" s="5">
         <v>43208</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F36" s="5">
         <v>43374</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G36" s="6">
         <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B36" s="7">
-        <v>42815</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="7">
-        <v>42916</v>
-      </c>
-      <c r="G36" s="4">
-        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B37" s="7">
+        <v>42815</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="7">
+        <v>42916</v>
+      </c>
+      <c r="G37" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>2016</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B38" s="7">
         <v>42373</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F38" s="7">
         <v>42275</v>
-      </c>
-      <c r="G37" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="7">
-        <v>42389</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="7">
-        <v>42460</v>
       </c>
       <c r="G38" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="7">
+        <v>42389</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="7">
+        <v>42460</v>
+      </c>
+      <c r="G39" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="7">
         <v>42459</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F40" s="7">
         <v>42491</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="7">
+    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="7">
         <v>42543</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="7">
-        <v>42617</v>
-      </c>
-      <c r="G40" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B41" s="8">
-        <v>42033</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="7">
+        <v>42617</v>
+      </c>
+      <c r="G41" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B42" s="8">
+        <v>42033</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F42" s="11">
         <v>42094</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G42" s="12">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
-      <c r="B42" s="9">
+    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="16"/>
+      <c r="B43" s="9">
         <v>42131</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F43" s="11">
         <v>42369</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G43" s="12">
         <v>341</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="9">
+    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="9">
         <v>42270</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F44" s="11">
         <v>42338</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G44" s="12">
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19">
+    <row r="45" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="19">
         <v>42312</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F45" s="11">
         <v>42355</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G45" s="12" t="s">
         <v>40</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/mt/source.xlsx
+++ b/data/warn-scraper/cache/mt/source.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mtgov-my.sharepoint.com/personal/cea599_mt_gov/Documents/WebContentManagement/2025/WARN Notices/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mtgov-my.sharepoint.com/personal/ce0501_mt_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BFB3F39-625C-4D15-BA3F-9A70E39734D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="8_{9E658140-0375-4196-8AF4-54A17CD16374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{586413C8-C1FF-4807-94A8-CE47E54FDB96}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9EEBCBD0-1086-4593-A928-76738C10FB2E}"/>
+    <workbookView xWindow="31140" yWindow="3075" windowWidth="21600" windowHeight="11235" xr2:uid="{9EEBCBD0-1086-4593-A928-76738C10FB2E}"/>
   </bookViews>
   <sheets>
     <sheet name="WARN" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="108">
   <si>
     <t>Date of Notice</t>
   </si>
@@ -341,6 +341,15 @@
   </si>
   <si>
     <t>Sales</t>
+  </si>
+  <si>
+    <t>Pacific Source Health</t>
+  </si>
+  <si>
+    <t>12/31/202</t>
+  </si>
+  <si>
+    <t>Healthcare Insurance</t>
   </si>
 </sst>
 </file>
@@ -887,23 +896,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0C4581-54A0-444B-96BE-38D309589FE1}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,7 +935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>2025</v>
       </c>
@@ -949,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="5">
         <v>45750</v>
@@ -970,7 +979,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="5">
         <v>45772</v>
@@ -991,7 +1000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="B5" s="5">
         <v>45866</v>
@@ -1012,7 +1021,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="5">
         <v>45887</v>
@@ -1033,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="5">
         <v>45926</v>
@@ -1054,7 +1063,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="5">
         <v>45957</v>
@@ -1075,366 +1084,354 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+      <c r="B9" s="5">
+        <v>45959</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
         <v>2024</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B12" s="22">
         <v>45380</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C12" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D12" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F12" s="22">
         <v>45443</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G12" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="22">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="22">
         <v>45365</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C13" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E13" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F13" s="22">
         <v>45413</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G13" s="32">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="22">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="22">
         <v>45371</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C14" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F14" s="22">
         <v>45434</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G14" s="23">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="22">
-        <v>45547</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="22">
-        <v>45608</v>
-      </c>
-      <c r="G13" s="23">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="22">
-        <v>45551</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="22">
-        <v>45611</v>
-      </c>
-      <c r="G14" s="32">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="22">
+        <v>45547</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="22">
+        <v>45608</v>
+      </c>
+      <c r="G15" s="23">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="22">
+        <v>45551</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="22">
+        <v>45611</v>
+      </c>
+      <c r="G16" s="32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="22">
         <v>45558</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C17" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D17" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E17" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F17" s="22">
         <v>45560</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G17" s="32">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="32"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="27"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="32"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
         <v>2023</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B20" s="9">
         <v>44963</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C20" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D20" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E20" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F20" s="9">
         <v>45030</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G20" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22">
-        <v>45139</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="23">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22">
-        <v>45161</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="22">
-        <v>45226</v>
-      </c>
-      <c r="G20" s="23">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="22">
+        <v>45139</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="23">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="22">
+        <v>45161</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="22">
+        <v>45226</v>
+      </c>
+      <c r="G22" s="23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22">
         <v>45174</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C23" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D23" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E23" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F23" s="22">
         <v>45231</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G23" s="23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="26">
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
         <v>2021</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B24" s="5">
         <v>44438</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F24" s="5">
         <v>44530</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G24" s="6">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="26">
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
         <v>2020</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B25" s="5">
         <v>43843</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F25" s="5">
         <v>43922</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G25" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="5">
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="5">
         <v>43871</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="5">
-        <v>43946</v>
-      </c>
-      <c r="G24" s="6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="5">
-        <v>43914</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="5">
-        <v>43915</v>
-      </c>
-      <c r="G25" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="5">
-        <v>43915</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F26" s="5">
-        <v>43915</v>
+        <v>43946</v>
       </c>
       <c r="G26" s="6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
       <c r="B27" s="5">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>36</v>
@@ -1443,392 +1440,434 @@
         <v>43915</v>
       </c>
       <c r="G27" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
       <c r="B28" s="5">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F28" s="5">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="G28" s="6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="5">
-        <v>43924</v>
+        <v>43915</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F29" s="5">
-        <v>43924</v>
+        <v>43915</v>
       </c>
       <c r="G29" s="6">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="5">
-        <v>43924</v>
+        <v>43916</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="F30" s="5">
+        <v>43916</v>
       </c>
       <c r="G30" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="5">
-        <v>43941</v>
+        <v>43924</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F31" s="5">
-        <v>43913</v>
+        <v>43924</v>
       </c>
       <c r="G31" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="5">
-        <v>43941</v>
+        <v>43924</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="5">
-        <v>43913</v>
+        <v>51</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G32" s="6">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="5">
-        <v>43956</v>
+        <v>43941</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F33" s="5">
-        <v>44019</v>
+        <v>43913</v>
       </c>
       <c r="G33" s="6">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="5">
-        <v>44174</v>
+        <v>43941</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="5">
-        <v>44167</v>
+        <v>43913</v>
       </c>
       <c r="G34" s="6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="5">
+        <v>43956</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="5">
+        <v>44019</v>
+      </c>
+      <c r="G35" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="5">
         <v>44174</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F36" s="5">
+        <v>44167</v>
+      </c>
+      <c r="G36" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="5">
+        <v>44174</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="5">
         <v>44228</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G37" s="6">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
         <v>2018</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B38" s="5">
         <v>43208</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F38" s="5">
         <v>43374</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G38" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>2017</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B39" s="7">
         <v>42815</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F39" s="7">
         <v>42916</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G39" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>2016</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B40" s="7">
         <v>42373</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F40" s="7">
         <v>42275</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G40" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="7">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="7">
         <v>42389</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F41" s="7">
         <v>42460</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G41" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="7">
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="7">
         <v>42459</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F42" s="7">
         <v>42491</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="7">
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="7">
         <v>42543</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F43" s="7">
         <v>42617</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G43" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>2015</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B44" s="8">
         <v>42033</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F44" s="11">
         <v>42094</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G44" s="12">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="9">
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="9">
         <v>42131</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F45" s="11">
         <v>42369</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G45" s="12">
         <v>341</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="9">
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="9">
         <v>42270</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F46" s="11">
         <v>42338</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G46" s="12">
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19">
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="19">
         <v>42312</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F47" s="11">
         <v>42355</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G47" s="12" t="s">
         <v>40</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/mt/source.xlsx
+++ b/data/warn-scraper/cache/mt/source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mtgov-my.sharepoint.com/personal/ce0501_mt_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="8_{9E658140-0375-4196-8AF4-54A17CD16374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{586413C8-C1FF-4807-94A8-CE47E54FDB96}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="8_{9E658140-0375-4196-8AF4-54A17CD16374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2F450AB-E22B-4B66-89CA-7E5E8EEBE0FB}"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="3075" windowWidth="21600" windowHeight="11235" xr2:uid="{9EEBCBD0-1086-4593-A928-76738C10FB2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9EEBCBD0-1086-4593-A928-76738C10FB2E}"/>
   </bookViews>
   <sheets>
     <sheet name="WARN" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
   <si>
     <t>Date of Notice</t>
   </si>
@@ -350,6 +350,18 @@
   </si>
   <si>
     <t>Healthcare Insurance</t>
+  </si>
+  <si>
+    <t>11/17/225</t>
+  </si>
+  <si>
+    <t>Exxon Mobile/Denbury Onshore LLC</t>
+  </si>
+  <si>
+    <t>Dawson, Fallon, Prairie and Wibaux</t>
+  </si>
+  <si>
+    <t>Hydrocarbon exploration/Drilling</t>
   </si>
 </sst>
 </file>
@@ -896,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0C4581-54A0-444B-96BE-38D309589FE1}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,14 +1117,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
+      <c r="B10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="5">
+        <v>46037</v>
+      </c>
+      <c r="G10" s="6">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
@@ -1120,60 +1144,48 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
+      <c r="A12" s="26"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
         <v>2024</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B13" s="22">
         <v>45380</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C13" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D13" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E13" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F13" s="22">
         <v>45443</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G13" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="22">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="22">
         <v>45365</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C14" s="23" t="s">
         <v>80</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="22">
-        <v>45413</v>
-      </c>
-      <c r="G13" s="32">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="22">
-        <v>45371</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>81</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>13</v>
@@ -1182,277 +1194,277 @@
         <v>17</v>
       </c>
       <c r="F14" s="22">
+        <v>45413</v>
+      </c>
+      <c r="G14" s="32">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="22">
+        <v>45371</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="22">
         <v>45434</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G15" s="23">
         <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="22">
-        <v>45547</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="22">
-        <v>45608</v>
-      </c>
-      <c r="G15" s="23">
-        <v>700</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="22">
-        <v>45551</v>
+        <v>45547</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="F16" s="22">
-        <v>45611</v>
-      </c>
-      <c r="G16" s="32">
-        <v>40</v>
+        <v>45608</v>
+      </c>
+      <c r="G16" s="23">
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="22">
-        <v>45558</v>
+        <v>45551</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F17" s="22">
-        <v>45560</v>
+        <v>45611</v>
       </c>
       <c r="G17" s="32">
-        <v>109</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="32"/>
+      <c r="B18" s="22">
+        <v>45558</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="22">
+        <v>45560</v>
+      </c>
+      <c r="G18" s="32">
+        <v>109</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="27"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="E19" s="31"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="32"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
         <v>2023</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B21" s="9">
         <v>44963</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C21" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D21" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E21" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F21" s="9">
         <v>45030</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G21" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22">
-        <v>45139</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="23">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="22">
-        <v>45161</v>
+        <v>45139</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="22">
-        <v>45226</v>
+        <v>66</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="G22" s="23">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="22">
+        <v>45161</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="22">
+        <v>45226</v>
+      </c>
+      <c r="G23" s="23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22">
         <v>45174</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C24" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D24" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E24" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F24" s="22">
         <v>45231</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G24" s="23" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="26">
-        <v>2021</v>
-      </c>
-      <c r="B24" s="5">
-        <v>44438</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="5">
-        <v>44530</v>
-      </c>
-      <c r="G24" s="6">
-        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B25" s="5">
-        <v>43843</v>
+        <v>44438</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="5">
+        <v>44530</v>
+      </c>
+      <c r="G25" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="26">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="5">
+        <v>43843</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="5">
         <v>43922</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G26" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="5">
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="5">
         <v>43871</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F27" s="5">
         <v>43946</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G27" s="6">
         <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="5">
-        <v>43914</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="5">
-        <v>43915</v>
-      </c>
-      <c r="G27" s="6">
-        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="5">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>36</v>
@@ -1461,19 +1473,19 @@
         <v>43915</v>
       </c>
       <c r="G28" s="6">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="5">
         <v>43915</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>36</v>
@@ -1482,49 +1494,49 @@
         <v>43915</v>
       </c>
       <c r="G29" s="6">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="5">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F30" s="5">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="G30" s="6">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="5">
-        <v>43924</v>
+        <v>43916</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F31" s="5">
-        <v>43924</v>
+        <v>43916</v>
       </c>
       <c r="G31" s="6">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1533,40 +1545,40 @@
         <v>43924</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="F32" s="5">
+        <v>43924</v>
       </c>
       <c r="G32" s="6">
-        <v>50</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="5">
-        <v>43941</v>
+        <v>43924</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="5">
-        <v>43913</v>
+        <v>51</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G33" s="6">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1575,7 +1587,7 @@
         <v>43941</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>33</v>
@@ -1587,49 +1599,49 @@
         <v>43913</v>
       </c>
       <c r="G34" s="6">
-        <v>83</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="5">
-        <v>43956</v>
+        <v>43941</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F35" s="5">
-        <v>44019</v>
+        <v>43913</v>
       </c>
       <c r="G35" s="6">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="5">
-        <v>44174</v>
+        <v>43956</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F36" s="5">
-        <v>44167</v>
+        <v>44019</v>
       </c>
       <c r="G36" s="6">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1647,227 +1659,248 @@
         <v>38</v>
       </c>
       <c r="F37" s="5">
+        <v>44167</v>
+      </c>
+      <c r="G37" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="5">
+        <v>44174</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="5">
         <v>44228</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G38" s="6">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
         <v>2018</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B39" s="5">
         <v>43208</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F39" s="5">
         <v>43374</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G39" s="6">
         <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B39" s="7">
-        <v>42815</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="7">
-        <v>42916</v>
-      </c>
-      <c r="G39" s="4">
-        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B40" s="7">
+        <v>42815</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="7">
+        <v>42916</v>
+      </c>
+      <c r="G40" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>2016</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B41" s="7">
         <v>42373</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F41" s="7">
         <v>42275</v>
-      </c>
-      <c r="G40" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="7">
-        <v>42389</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="7">
-        <v>42460</v>
       </c>
       <c r="G41" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="7">
+        <v>42389</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="7">
+        <v>42460</v>
+      </c>
+      <c r="G42" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="7">
         <v>42459</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F43" s="7">
         <v>42491</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="7">
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="7">
         <v>42543</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="7">
-        <v>42617</v>
-      </c>
-      <c r="G43" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B44" s="8">
-        <v>42033</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="7">
+        <v>42617</v>
+      </c>
+      <c r="G44" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B45" s="8">
+        <v>42033</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F45" s="11">
         <v>42094</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G45" s="12">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="9">
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="9">
         <v>42131</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F46" s="11">
         <v>42369</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G46" s="12">
         <v>341</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="9">
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" s="9">
         <v>42270</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F47" s="11">
         <v>42338</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G47" s="12">
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19">
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="19">
         <v>42312</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F48" s="11">
         <v>42355</v>
       </c>
-      <c r="G47" s="12" t="s">
+      <c r="G48" s="12" t="s">
         <v>40</v>
       </c>
     </row>
